--- a/INTLINE/data/223/COMEX/General Exports and Imports_historical.xlsx
+++ b/INTLINE/data/223/COMEX/General Exports and Imports_historical.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AEM2"/>
+  <dimension ref="A1:AEN2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4457,6 +4457,11 @@
           <t>2022-02</t>
         </is>
       </c>
+      <c r="AEN1" s="1" t="inlineStr">
+        <is>
+          <t>2022-03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -6913,10 +6918,13 @@
         <v>24432.406778</v>
       </c>
       <c r="AEL2" t="n">
-        <v>19730.909095</v>
+        <v>19733.637743</v>
       </c>
       <c r="AEM2" t="n">
-        <v>22912.399583</v>
+        <v>23490.314664</v>
+      </c>
+      <c r="AEN2" t="n">
+        <v>29059.11183</v>
       </c>
     </row>
   </sheetData>
